--- a/Documents/业务会话与设备的异常情况处理表.xlsx
+++ b/Documents/业务会话与设备的异常情况处理表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>设备A掉线</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>设备A和B均掉线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>App端动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.检测到设备A已掉线；2.释放设备A；3.业务会话通知设备B：设备A已掉线；4.等待设备B的消息；5.收到设备B的消息后，将业务会话的状态改为空闲，将设备B的状态改为空闲或等待匹配；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,14 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.检测到设备A和B均已掉线；2.释放设备A和B；3.将业务会话改为空闲状态；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.检测到设备A已掉线；2.释放设备A；3.给设备B的印象卡片打好评？；4.等待设备B的消息；5.收到设备B的消息后，将业务会话状态改为空闲，将设备B的状态改为空闲或等待匹配；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 设备B收到业务会话关于设备A已掉线的通知后，不做处理，继续视频聊天；2.视频聊天结束后，评价对方；3.选择继续下一次业务匹配（默认）或退出业务设备池，并向Server发出相应的消息；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,15 +93,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.设备A和B掉线后出现自动重连界面；2.重连后回到HomeScreen；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.检测到设备A和B均已掉线；2.释放设备A和B；3.给设备A和B的印象卡片均打好评；4.将业务会话改为空闲状态；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.检测到设备A和B均已掉线；2.释放设备A和B；</t>
+    <t>1.检测到设备A已掉线；2.释放设备A；3.给设备B的印象卡片打好评;4.等待设备B的消息；5.收到设备B的消息后，将业务会话状态改为空闲，将设备B的状态改为空闲或等待匹配；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -245,14 +221,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -601,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="85" customHeight="1" x14ac:dyDescent="0"/>
@@ -613,43 +589,31 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="85" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="85" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4"/>
+      <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="85" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="85" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="85" customHeight="1">
+    <row r="3" spans="1:4" ht="85" customHeight="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -657,19 +621,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="85" customHeight="1">
+    <row r="4" spans="1:4" ht="85" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -677,19 +635,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85" customHeight="1">
+    <row r="5" spans="1:4" ht="85" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -697,19 +649,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="85" customHeight="1">
+    <row r="6" spans="1:4" ht="85" customHeight="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -717,23 +663,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
